--- a/kategoriler/Yardımcı Arayanlar.xlsx
+++ b/kategoriler/Yardımcı Arayanlar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\OneDrive\Desktop\kategoriler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2106CB54-5C17-42B3-AF63-EF75818C8F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54417A8D-EDA4-429D-B072-710A71EA4285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>ALT KATEGORİ</t>
   </si>
   <si>
-    <t>Aradığınız Ürünün Özellikleri</t>
+    <t>Aradığınız Ürünün Özellikleri KISMI(attribute)</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,7 +460,7 @@
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="72">
+    <row r="1" spans="1:4" ht="90">
       <c r="A1" t="s">
         <v>29</v>
       </c>
